--- a/public/static/uploadTemplate/UploadTemplate.xlsx
+++ b/public/static/uploadTemplate/UploadTemplate.xlsx
@@ -4,13 +4,130 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>1</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">性别
+0:暂不设置
+1：男
+2：女
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">年龄
+0:暂不设置
+1：20岁及以下
+2：21-25岁
+3：26-30岁
+4：31-35岁
+5：36岁及以上
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>学历
+0:无
+1：中专
+2：大专
+3：本科
+4：硕士
+5：博士</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">社会工龄
+0：暂不设置
+1：0-5年
+2：6-10年
+3：10年以上
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">	标注项目经验
+0:无;
+1：文本类标注经验
+2：图片类标注经验
+3：视频类标注经验
+4：音频类标注经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">英语水平
+0：无
+1：CET-4
+2：CET-6
+3：专4
+4：专8
+5：托福
+6：雅思
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +327,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -988,7 +1110,9 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1035,5 +1159,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/static/uploadTemplate/UploadTemplate.xlsx
+++ b/public/static/uploadTemplate/UploadTemplate.xlsx
@@ -13,123 +13,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>1</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">性别
-0:暂不设置
-1：男
-2：女
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">年龄
-0:暂不设置
-1：20岁及以下
-2：21-25岁
-3：26-30岁
-4：31-35岁
-5：36岁及以上
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>学历
-0:无
-1：中专
-2：大专
-3：本科
-4：硕士
-5：博士</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">社会工龄
-0：暂不设置
-1：0-5年
-2：6-10年
-3：10年以上
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">	标注项目经验
-0:无;
-1：文本类标注经验
-2：图片类标注经验
-3：视频类标注经验
-4：音频类标注经验</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">英语水平
-0：无
-1：CET-4
-2：CET-6
-3：专4
-4：专8
-5：托福
-6：雅思
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -139,10 +22,10 @@
     <t>密码</t>
   </si>
   <si>
-    <t>成员名称</t>
+    <t>姓名</t>
   </si>
   <si>
-    <t>成员邮箱</t>
+    <t>邮箱</t>
   </si>
   <si>
     <t>性别</t>
@@ -176,7 +59,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,11 +210,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -784,9 +662,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,7 +993,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,44 +1002,63 @@
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E1:E2 E6:E7 E8:E1048576">
+      <formula1>"暂不设置,男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K4 K5 K1:K2 K6:K7 K8:K1048576">
+      <formula1>"无,CET-4,CET-6,专4,专8,托福,雅思"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F1:F2 F6:F7 F8:F1048576">
+      <formula1>"暂不设置,20岁及以下,21-25岁,26-30岁,31-35岁,36岁及以上"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G1:G2 G6:G7 G8:G1048576">
+      <formula1>"暂不设置,中专,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4 H5 H1:H2 H6:H7 H8:H1048576">
+      <formula1>"暂不设置,0-5年,6-10年,10年以上"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 J4 J5 J1:J2 J6:J7 J8:J1048576">
+      <formula1>"暂不设置,文本类标注经验,图片类标注经验,视频类标注经验,音频类标注经验"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>